--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ADF/20/seed4/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ADF/20/seed4/result_data_KNN.xlsx
@@ -471,7 +471,7 @@
         <v>-10.8</v>
       </c>
       <c r="D2" t="n">
-        <v>-7.368</v>
+        <v>-7.7</v>
       </c>
       <c r="E2" t="n">
         <v>12.33</v>
@@ -488,7 +488,7 @@
         <v>-9.76</v>
       </c>
       <c r="D3" t="n">
-        <v>-7.080000000000001</v>
+        <v>-7.7</v>
       </c>
       <c r="E3" t="n">
         <v>13.95</v>
@@ -522,7 +522,7 @@
         <v>-15.14</v>
       </c>
       <c r="D5" t="n">
-        <v>-8.366</v>
+        <v>-7.961</v>
       </c>
       <c r="E5" t="n">
         <v>9.970000000000001</v>
@@ -559,7 +559,7 @@
         <v>-9.31</v>
       </c>
       <c r="E7" t="n">
-        <v>13.036</v>
+        <v>13.078</v>
       </c>
     </row>
     <row r="8">
@@ -581,7 +581,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-20.046</v>
+        <v>-20.775</v>
       </c>
       <c r="B9" t="n">
         <v>10.18</v>
@@ -593,7 +593,7 @@
         <v>-9.9</v>
       </c>
       <c r="E9" t="n">
-        <v>12.832</v>
+        <v>12.734</v>
       </c>
     </row>
     <row r="10">
@@ -624,7 +624,7 @@
         <v>-13.87</v>
       </c>
       <c r="D11" t="n">
-        <v>-8.422000000000001</v>
+        <v>-8.15</v>
       </c>
       <c r="E11" t="n">
         <v>13.91</v>
@@ -641,7 +641,7 @@
         <v>-15.79</v>
       </c>
       <c r="D12" t="n">
-        <v>-8.422000000000001</v>
+        <v>-8.088999999999999</v>
       </c>
       <c r="E12" t="n">
         <v>13.01</v>
@@ -649,7 +649,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-22.484</v>
+        <v>-21.99</v>
       </c>
       <c r="B13" t="n">
         <v>4.42</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.198</v>
+        <v>-20.825</v>
       </c>
       <c r="B16" t="n">
         <v>8.949999999999999</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.688</v>
+        <v>-21.834</v>
       </c>
       <c r="B18" t="n">
         <v>5.81</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-22.078</v>
+        <v>-21.763</v>
       </c>
       <c r="B20" t="n">
         <v>5.51</v>
@@ -794,10 +794,10 @@
         <v>-12.06</v>
       </c>
       <c r="D21" t="n">
-        <v>-8.440000000000001</v>
+        <v>-7.813999999999998</v>
       </c>
       <c r="E21" t="n">
-        <v>13.326</v>
+        <v>13.272</v>
       </c>
     </row>
     <row r="22">
